--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pdgfa-Pdgfra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pdgfa-Pdgfra.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.142637666666667</v>
+        <v>5.019802666666667</v>
       </c>
       <c r="H2">
-        <v>6.427913</v>
+        <v>15.059408</v>
       </c>
       <c r="I2">
-        <v>0.05953067687027142</v>
+        <v>0.1084294745534388</v>
       </c>
       <c r="J2">
-        <v>0.05953067687027141</v>
+        <v>0.1084294745534388</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.236283</v>
+        <v>0.6692693333333334</v>
       </c>
       <c r="N2">
-        <v>0.7088490000000001</v>
+        <v>2.007808</v>
       </c>
       <c r="O2">
-        <v>0.001461516295904947</v>
+        <v>0.004126561180566838</v>
       </c>
       <c r="P2">
-        <v>0.001461516295904947</v>
+        <v>0.004126561180566839</v>
       </c>
       <c r="Q2">
-        <v>0.5062688557930001</v>
+        <v>3.359599984184889</v>
       </c>
       <c r="R2">
-        <v>4.556419702137001</v>
+        <v>30.23639985766401</v>
       </c>
       <c r="S2">
-        <v>8.70050543521534E-05</v>
+        <v>0.0004474408605214803</v>
       </c>
       <c r="T2">
-        <v>8.700505435215338E-05</v>
+        <v>0.0004474408605214804</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.142637666666667</v>
+        <v>5.019802666666667</v>
       </c>
       <c r="H3">
-        <v>6.427913</v>
+        <v>15.059408</v>
       </c>
       <c r="I3">
-        <v>0.05953067687027142</v>
+        <v>0.1084294745534388</v>
       </c>
       <c r="J3">
-        <v>0.05953067687027141</v>
+        <v>0.1084294745534388</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>482.517059</v>
       </c>
       <c r="O3">
-        <v>0.9948614511421033</v>
+        <v>0.9916964991825307</v>
       </c>
       <c r="P3">
-        <v>0.9948614511421032</v>
+        <v>0.9916964991825309</v>
       </c>
       <c r="Q3">
-        <v>344.6197418075408</v>
+        <v>807.3801398267857</v>
       </c>
       <c r="R3">
-        <v>3101.577676267867</v>
+        <v>7266.421258441072</v>
       </c>
       <c r="S3">
-        <v>0.05922477557862987</v>
+        <v>0.1075291303228465</v>
       </c>
       <c r="T3">
-        <v>0.05922477557862985</v>
+        <v>0.1075291303228466</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.142637666666667</v>
+        <v>5.019802666666667</v>
       </c>
       <c r="H4">
-        <v>6.427913</v>
+        <v>15.059408</v>
       </c>
       <c r="I4">
-        <v>0.05953067687027142</v>
+        <v>0.1084294745534388</v>
       </c>
       <c r="J4">
-        <v>0.05953067687027141</v>
+        <v>0.1084294745534388</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.474493</v>
+        <v>0.5637343333333333</v>
       </c>
       <c r="N4">
-        <v>1.423479</v>
+        <v>1.691203</v>
       </c>
       <c r="O4">
-        <v>0.002934951950808252</v>
+        <v>0.003475856580040611</v>
       </c>
       <c r="P4">
-        <v>0.002934951950808251</v>
+        <v>0.003475856580040611</v>
       </c>
       <c r="Q4">
-        <v>1.016666574369667</v>
+        <v>2.829835109758223</v>
       </c>
       <c r="R4">
-        <v>9.149999169327</v>
+        <v>25.468515987824</v>
       </c>
       <c r="S4">
-        <v>0.0001747196762133388</v>
+        <v>0.0003768853025969161</v>
       </c>
       <c r="T4">
-        <v>0.0001747196762133387</v>
+        <v>0.0003768853025969162</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.142637666666667</v>
+        <v>5.019802666666667</v>
       </c>
       <c r="H5">
-        <v>6.427913</v>
+        <v>15.059408</v>
       </c>
       <c r="I5">
-        <v>0.05953067687027142</v>
+        <v>0.1084294745534388</v>
       </c>
       <c r="J5">
-        <v>0.05953067687027141</v>
+        <v>0.1084294745534388</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.119972</v>
+        <v>0.1137056666666667</v>
       </c>
       <c r="N5">
-        <v>0.359916</v>
+        <v>0.341117</v>
       </c>
       <c r="O5">
-        <v>0.0007420806111836584</v>
+        <v>0.0007010830568617209</v>
       </c>
       <c r="P5">
-        <v>0.0007420806111836582</v>
+        <v>0.0007010830568617211</v>
       </c>
       <c r="Q5">
-        <v>0.2570565261453334</v>
+        <v>0.5707800087484445</v>
       </c>
       <c r="R5">
-        <v>2.313508735308</v>
+        <v>5.137020078736001</v>
       </c>
       <c r="S5">
-        <v>4.417656107606789E-05</v>
+        <v>7.601806747383503E-05</v>
       </c>
       <c r="T5">
-        <v>4.417656107606787E-05</v>
+        <v>7.601806747383506E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.734454666666667</v>
+        <v>4.734454666666666</v>
       </c>
       <c r="H6">
         <v>14.203364</v>
       </c>
       <c r="I6">
-        <v>0.1315412751782493</v>
+        <v>0.1022658590172488</v>
       </c>
       <c r="J6">
-        <v>0.1315412751782492</v>
+        <v>0.1022658590172488</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.236283</v>
+        <v>0.6692693333333334</v>
       </c>
       <c r="N6">
-        <v>0.7088490000000001</v>
+        <v>2.007808</v>
       </c>
       <c r="O6">
-        <v>0.001461516295904947</v>
+        <v>0.004126561180566838</v>
       </c>
       <c r="P6">
-        <v>0.001461516295904947</v>
+        <v>0.004126561180566839</v>
       </c>
       <c r="Q6">
-        <v>1.118671152004</v>
+        <v>3.168625318456889</v>
       </c>
       <c r="R6">
-        <v>10.068040368036</v>
+        <v>28.517627866112</v>
       </c>
       <c r="S6">
-        <v>0.0001922497172571283</v>
+        <v>0.0004220063239178999</v>
       </c>
       <c r="T6">
-        <v>0.0001922497172571282</v>
+        <v>0.0004220063239179</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.734454666666667</v>
+        <v>4.734454666666666</v>
       </c>
       <c r="H7">
         <v>14.203364</v>
       </c>
       <c r="I7">
-        <v>0.1315412751782493</v>
+        <v>0.1022658590172488</v>
       </c>
       <c r="J7">
-        <v>0.1315412751782492</v>
+        <v>0.1022658590172488</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>482.517059</v>
       </c>
       <c r="O7">
-        <v>0.9948614511421033</v>
+        <v>0.9916964991825307</v>
       </c>
       <c r="P7">
-        <v>0.9948614511421032</v>
+        <v>0.9916964991825309</v>
       </c>
       <c r="Q7">
-        <v>761.4850472429417</v>
+        <v>761.4850472429416</v>
       </c>
       <c r="R7">
         <v>6853.365425186475</v>
       </c>
       <c r="S7">
-        <v>0.1308653439089158</v>
+        <v>0.1014166943732998</v>
       </c>
       <c r="T7">
-        <v>0.1308653439089157</v>
+        <v>0.1014166943732999</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.734454666666667</v>
+        <v>4.734454666666666</v>
       </c>
       <c r="H8">
         <v>14.203364</v>
       </c>
       <c r="I8">
-        <v>0.1315412751782493</v>
+        <v>0.1022658590172488</v>
       </c>
       <c r="J8">
-        <v>0.1315412751782492</v>
+        <v>0.1022658590172488</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.474493</v>
+        <v>0.5637343333333333</v>
       </c>
       <c r="N8">
-        <v>1.423479</v>
+        <v>1.691203</v>
       </c>
       <c r="O8">
-        <v>0.002934951950808252</v>
+        <v>0.003475856580040611</v>
       </c>
       <c r="P8">
-        <v>0.002934951950808251</v>
+        <v>0.003475856580040611</v>
       </c>
       <c r="Q8">
-        <v>2.246465598150667</v>
+        <v>2.668974645210222</v>
       </c>
       <c r="R8">
-        <v>20.218190383356</v>
+        <v>24.020771806892</v>
       </c>
       <c r="S8">
-        <v>0.0003860673221962077</v>
+        <v>0.0003554614589786095</v>
       </c>
       <c r="T8">
-        <v>0.0003860673221962076</v>
+        <v>0.0003554614589786096</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.734454666666667</v>
+        <v>4.734454666666666</v>
       </c>
       <c r="H9">
         <v>14.203364</v>
       </c>
       <c r="I9">
-        <v>0.1315412751782493</v>
+        <v>0.1022658590172488</v>
       </c>
       <c r="J9">
-        <v>0.1315412751782492</v>
+        <v>0.1022658590172488</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.119972</v>
+        <v>0.1137056666666667</v>
       </c>
       <c r="N9">
-        <v>0.359916</v>
+        <v>0.341117</v>
       </c>
       <c r="O9">
-        <v>0.0007420806111836584</v>
+        <v>0.0007010830568617209</v>
       </c>
       <c r="P9">
-        <v>0.0007420806111836582</v>
+        <v>0.0007010830568617211</v>
       </c>
       <c r="Q9">
-        <v>0.5680019952693335</v>
+        <v>0.5383343241764443</v>
       </c>
       <c r="R9">
-        <v>5.112017957424</v>
+        <v>4.845008917587999</v>
       </c>
       <c r="S9">
-        <v>9.7614229880153E-05</v>
+        <v>7.169686105240254E-05</v>
       </c>
       <c r="T9">
-        <v>9.761422988015295E-05</v>
+        <v>7.169686105240257E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>24.72946233333333</v>
+        <v>28.73869333333333</v>
       </c>
       <c r="H10">
-        <v>74.18838700000001</v>
+        <v>86.21608000000001</v>
       </c>
       <c r="I10">
-        <v>0.6870791334642589</v>
+        <v>0.6207657201702246</v>
       </c>
       <c r="J10">
-        <v>0.6870791334642588</v>
+        <v>0.6207657201702246</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.236283</v>
+        <v>0.6692693333333334</v>
       </c>
       <c r="N10">
-        <v>0.7088490000000001</v>
+        <v>2.007808</v>
       </c>
       <c r="O10">
-        <v>0.001461516295904947</v>
+        <v>0.004126561180566838</v>
       </c>
       <c r="P10">
-        <v>0.001461516295904947</v>
+        <v>0.004126561180566839</v>
       </c>
       <c r="Q10">
-        <v>5.843151548507</v>
+        <v>19.23392612807111</v>
       </c>
       <c r="R10">
-        <v>52.58836393656301</v>
+        <v>173.10533515264</v>
       </c>
       <c r="S10">
-        <v>0.001004177350134265</v>
+        <v>0.002561627723081065</v>
       </c>
       <c r="T10">
-        <v>0.001004177350134264</v>
+        <v>0.002561627723081066</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>24.72946233333333</v>
+        <v>28.73869333333333</v>
       </c>
       <c r="H11">
-        <v>74.18838700000001</v>
+        <v>86.21608000000001</v>
       </c>
       <c r="I11">
-        <v>0.6870791334642589</v>
+        <v>0.6207657201702246</v>
       </c>
       <c r="J11">
-        <v>0.6870791334642588</v>
+        <v>0.6207657201702246</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>482.517059</v>
       </c>
       <c r="O11">
-        <v>0.9948614511421033</v>
+        <v>0.9916964991825307</v>
       </c>
       <c r="P11">
-        <v>0.9948614511421032</v>
+        <v>0.9916964991825309</v>
       </c>
       <c r="Q11">
-        <v>3977.462478577092</v>
+        <v>4622.303262234302</v>
       </c>
       <c r="R11">
-        <v>35797.16230719383</v>
+        <v>41600.72936010872</v>
       </c>
       <c r="S11">
-        <v>0.6835485437677115</v>
+        <v>0.6156111915053342</v>
       </c>
       <c r="T11">
-        <v>0.6835485437677112</v>
+        <v>0.6156111915053343</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>24.72946233333333</v>
+        <v>28.73869333333333</v>
       </c>
       <c r="H12">
-        <v>74.18838700000001</v>
+        <v>86.21608000000001</v>
       </c>
       <c r="I12">
-        <v>0.6870791334642589</v>
+        <v>0.6207657201702246</v>
       </c>
       <c r="J12">
-        <v>0.6870791334642588</v>
+        <v>0.6207657201702246</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.474493</v>
+        <v>0.5637343333333333</v>
       </c>
       <c r="N12">
-        <v>1.423479</v>
+        <v>1.691203</v>
       </c>
       <c r="O12">
-        <v>0.002934951950808252</v>
+        <v>0.003475856580040611</v>
       </c>
       <c r="P12">
-        <v>0.002934951950808251</v>
+        <v>0.003475856580040611</v>
       </c>
       <c r="Q12">
-        <v>11.73395677093033</v>
+        <v>16.20098812713778</v>
       </c>
       <c r="R12">
-        <v>105.605610938373</v>
+        <v>145.80889314424</v>
       </c>
       <c r="S12">
-        <v>0.00201654424312057</v>
+        <v>0.002157692613117324</v>
       </c>
       <c r="T12">
-        <v>0.002016544243120569</v>
+        <v>0.002157692613117324</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>24.72946233333333</v>
+        <v>28.73869333333333</v>
       </c>
       <c r="H13">
-        <v>74.18838700000001</v>
+        <v>86.21608000000001</v>
       </c>
       <c r="I13">
-        <v>0.6870791334642589</v>
+        <v>0.6207657201702246</v>
       </c>
       <c r="J13">
-        <v>0.6870791334642588</v>
+        <v>0.6207657201702246</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.119972</v>
+        <v>0.1137056666666667</v>
       </c>
       <c r="N13">
-        <v>0.359916</v>
+        <v>0.341117</v>
       </c>
       <c r="O13">
-        <v>0.0007420806111836584</v>
+        <v>0.0007010830568617209</v>
       </c>
       <c r="P13">
-        <v>0.0007420806111836582</v>
+        <v>0.0007010830568617211</v>
       </c>
       <c r="Q13">
-        <v>2.966843055054667</v>
+        <v>3.267752284595555</v>
       </c>
       <c r="R13">
-        <v>26.701587495492</v>
+        <v>29.40977056136</v>
       </c>
       <c r="S13">
-        <v>0.0005098681032926956</v>
+        <v>0.0004352083286919087</v>
       </c>
       <c r="T13">
-        <v>0.0005098681032926954</v>
+        <v>0.0004352083286919088</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.385605666666667</v>
+        <v>7.802604</v>
       </c>
       <c r="H14">
-        <v>13.156817</v>
+        <v>23.407812</v>
       </c>
       <c r="I14">
-        <v>0.1218489144872206</v>
+        <v>0.1685389462590879</v>
       </c>
       <c r="J14">
-        <v>0.1218489144872206</v>
+        <v>0.1685389462590879</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.236283</v>
+        <v>0.6692693333333334</v>
       </c>
       <c r="N14">
-        <v>0.7088490000000001</v>
+        <v>2.007808</v>
       </c>
       <c r="O14">
-        <v>0.001461516295904947</v>
+        <v>0.004126561180566838</v>
       </c>
       <c r="P14">
-        <v>0.001461516295904947</v>
+        <v>0.004126561180566839</v>
       </c>
       <c r="Q14">
-        <v>1.036244063737</v>
+        <v>5.222043577344</v>
       </c>
       <c r="R14">
-        <v>9.326196573633</v>
+        <v>46.99839219609601</v>
       </c>
       <c r="S14">
-        <v>0.0001780841741614013</v>
+        <v>0.0006954862730463927</v>
       </c>
       <c r="T14">
-        <v>0.0001780841741614013</v>
+        <v>0.0006954862730463929</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.385605666666667</v>
+        <v>7.802604</v>
       </c>
       <c r="H15">
-        <v>13.156817</v>
+        <v>23.407812</v>
       </c>
       <c r="I15">
-        <v>0.1218489144872206</v>
+        <v>0.1685389462590879</v>
       </c>
       <c r="J15">
-        <v>0.1218489144872206</v>
+        <v>0.1685389462590879</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>482.517059</v>
       </c>
       <c r="O15">
-        <v>0.9948614511421033</v>
+        <v>0.9916964991825307</v>
       </c>
       <c r="P15">
-        <v>0.9948614511421032</v>
+        <v>0.9916964991825309</v>
       </c>
       <c r="Q15">
-        <v>705.3765160712447</v>
+        <v>1254.963178207212</v>
       </c>
       <c r="R15">
-        <v>6348.388644641203</v>
+        <v>11294.66860386491</v>
       </c>
       <c r="S15">
-        <v>0.1212227878868464</v>
+        <v>0.1671394829810502</v>
       </c>
       <c r="T15">
-        <v>0.1212227878868463</v>
+        <v>0.1671394829810502</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.385605666666667</v>
+        <v>7.802604</v>
       </c>
       <c r="H16">
-        <v>13.156817</v>
+        <v>23.407812</v>
       </c>
       <c r="I16">
-        <v>0.1218489144872206</v>
+        <v>0.1685389462590879</v>
       </c>
       <c r="J16">
-        <v>0.1218489144872206</v>
+        <v>0.1685389462590879</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.474493</v>
+        <v>0.5637343333333333</v>
       </c>
       <c r="N16">
-        <v>1.423479</v>
+        <v>1.691203</v>
       </c>
       <c r="O16">
-        <v>0.002934951950808252</v>
+        <v>0.003475856580040611</v>
       </c>
       <c r="P16">
-        <v>0.002934951950808251</v>
+        <v>0.003475856580040611</v>
       </c>
       <c r="Q16">
-        <v>2.080939189593667</v>
+        <v>4.398595764204</v>
       </c>
       <c r="R16">
-        <v>18.728452706343</v>
+        <v>39.587361877836</v>
       </c>
       <c r="S16">
-        <v>0.000357620709278136</v>
+        <v>0.0005858172053477617</v>
       </c>
       <c r="T16">
-        <v>0.0003576207092781359</v>
+        <v>0.0005858172053477617</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.385605666666667</v>
+        <v>7.802604</v>
       </c>
       <c r="H17">
-        <v>13.156817</v>
+        <v>23.407812</v>
       </c>
       <c r="I17">
-        <v>0.1218489144872206</v>
+        <v>0.1685389462590879</v>
       </c>
       <c r="J17">
-        <v>0.1218489144872206</v>
+        <v>0.1685389462590879</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.119972</v>
+        <v>0.1137056666666667</v>
       </c>
       <c r="N17">
-        <v>0.359916</v>
+        <v>0.341117</v>
       </c>
       <c r="O17">
-        <v>0.0007420806111836584</v>
+        <v>0.0007010830568617209</v>
       </c>
       <c r="P17">
-        <v>0.0007420806111836582</v>
+        <v>0.0007010830568617211</v>
       </c>
       <c r="Q17">
-        <v>0.5261498830413334</v>
+        <v>0.8872002895559999</v>
       </c>
       <c r="R17">
-        <v>4.735348947372001</v>
+        <v>7.984802606004</v>
       </c>
       <c r="S17">
-        <v>9.0421716934742E-05</v>
+        <v>0.0001181597996435747</v>
       </c>
       <c r="T17">
-        <v>9.042171693474195E-05</v>
+        <v>0.0001181597996435747</v>
       </c>
     </row>
   </sheetData>
